--- a/О_компании.xlsx
+++ b/О_компании.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="302">
   <si>
     <t>Сопоставление страницы "О компании" РЦ2 и прода на всех языках кроме русского.</t>
   </si>
@@ -519,6 +519,594 @@
   </si>
   <si>
     <t>Ошибка в названии иконки тест- "Streckennetzkarte", прод-"Streckenkarte"</t>
+  </si>
+  <si>
+    <t>Uber uns/Verkaufsburos weltweit</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/offices
+http://www.aeroflot.ru/cms/de/offices</t>
+  </si>
+  <si>
+    <t>Разное название: тест-Verkaufsburos weltweit, прод- Offices</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Незаполнено поле Stadt</t>
+  </si>
+  <si>
+    <t>Различное наполнение страниц.</t>
+  </si>
+  <si>
+    <t>Uber uns/Kontaktinformationen</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* An die Kooperationskunden
+* Nutzliche Kontaktinformationen</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/about/contact
+http://www.aeroflot.ru/cms/de/about/contact</t>
+  </si>
+  <si>
+    <t>Отличается отображение иконки: Vertriebsstellen und Ticketschalter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber uns/Kontaktinformationen/Vertriebsstellen und Ticketschalter
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Различный заголовок: тест- Vertriebsstellen und Ticketschalter, прод - Kontakt
+</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/about/queries
+http://www.aeroflot.ru/cms/de/about/queries</t>
+  </si>
+  <si>
+    <t>Uber uns/Aeroflot heute</t>
+  </si>
+  <si>
+    <t>Отсутствует иконка -  Aeroflot heute</t>
+  </si>
+  <si>
+    <t>Лишняя иконка "Struktur der Gesellschaft"</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/about/aeroflot_today
+http://www.aeroflot.ru/cms/de/menudummy/17383</t>
+  </si>
+  <si>
+    <t>Различные ссылки на страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber uns/Aeroflot heute/Geschichte
+</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* 2008
+* 2007
+* 2006
+* 2005
+* 2004
+* 2003
+* 2002
+* 2001
+* 2000</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/about/aeroflot_history
+http://www.aeroflot.ru/cms/de/about/aeroflot_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber uns/Aeroflot heute/Geschichte/1990-1999
+</t>
+  </si>
+  <si>
+    <t>Ссылка www.aeroflot.ru не выделена</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/about/history_90-99
+http://www.aeroflot.ru/cms/de/about/history_90-99</t>
+  </si>
+  <si>
+    <t>Uber uns/Die ubrigen Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии происходит сразу переход на страницу http://www.aeroflot.ru/ru-de/about/partners
+на проде сделана отдельная иконка с адресом http://www.aeroflot.ru/cms/de/about/partners_all
+</t>
+  </si>
+  <si>
+    <t>Uber uns/Streckenkarte</t>
+  </si>
+  <si>
+    <t>Заголовок написан с ошибкой: тест-Streckennetzkarte, прод- Streckenkarte</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/flight/ways_map
+http://www.aeroflot.ru/cms/de/about/travel_map</t>
+  </si>
+  <si>
+    <t>Различный контент</t>
+  </si>
+  <si>
+    <t>Uber uns/Flugzeugpark</t>
+  </si>
+  <si>
+    <t>Отличаются хлебные крошки: тест- Flug, прод - Uber uns</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/flight/plane_park
+http://www.aeroflot.ru/cms/de/flight/plane_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber uns/SkyTeam Luftfahrtallianz/News der Mitglieder der SkyTeam Luftfahrtallianz
+</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/skyteam_news
+http://www.aeroflot.ru/cms/de/skyteam_news</t>
+  </si>
+  <si>
+    <t>Кривой заголовок</t>
+  </si>
+  <si>
+    <t>Кривые хлебные крошки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображаются даты у новостей </t>
+  </si>
+  <si>
+    <t>Отображается архив</t>
+  </si>
+  <si>
+    <t>Uber uns/SkyTeam Luftfahrtallianz/Global Meeting</t>
+  </si>
+  <si>
+    <t>Вообще не отображаются хлебные крошки.</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-de/about/global
+http://www.aeroflot.ru/cms/de/about/global</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Compagnie</t>
+  </si>
+  <si>
+    <t>Присутствует иконка "Actualites", на проде ее нет</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/
+http://www.aeroflot.ru/cms/fr/about</t>
+  </si>
+  <si>
+    <t>Другая иконка у Contacts, Aeroflot aujourd'hui</t>
+  </si>
+  <si>
+    <t>По другому называется иконка "Carte des itineraires, на тесте она Carte qeoqraphique interactive</t>
+  </si>
+  <si>
+    <t>отсутствует иконка l'histoire de la compagnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. </t>
+  </si>
+  <si>
+    <t>Compagnie/Actualites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Такой страницы на проде нет, кривое отображение страницы: отсутствует контент, кривые хлебные крошки и название
+</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compagnie/Agences et points de vente dans le monde entier
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствуют хлебные крошки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разное название у страниц: тест- Agences et points de vente dans le monde entier, прод- Offices
+</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/offices
+http://www.aeroflot.ru/cms/fr/offices</t>
+  </si>
+  <si>
+    <t>Поле Ville отличается списком городов</t>
+  </si>
+  <si>
+    <t>Неактуальный контент</t>
+  </si>
+  <si>
+    <t>Compagnie/Contacts</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/contact
+http://www.aeroflot.ru/cms/fr/about/contact</t>
+  </si>
+  <si>
+    <t>Compagnie/Contacts/Nos contacts</t>
+  </si>
+  <si>
+    <t>Различное название страницы: тест-Nos contacts, прод- S'adresser a la compagnie aerienne</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/queries
+http://www.aeroflot.ru/cms/fr/about/queries</t>
+  </si>
+  <si>
+    <t>Compagnie/Contacts/Aeroflot aujourd'hui</t>
+  </si>
+  <si>
+    <t>Отличается отображение у иконки Nos contacts</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* Pour les clients corporatifs
+* Contacts utiles</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* Profil de la compagnie
+* Stategie et developpement
+* Politique de la compagnie
+* Nos realisations</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/aeroflot_today
+http://www.aeroflot.ru/cms/fr/about/aeroflot_today</t>
+  </si>
+  <si>
+    <t>Присутствует лишняя иконка- L'histoire de la compagnie</t>
+  </si>
+  <si>
+    <t>Compagnie/Partenaires</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/partners
+http://www.aeroflot.ru/cms/fr/about/partners_all</t>
+  </si>
+  <si>
+    <t>Compagnie/Ventes et achats</t>
+  </si>
+  <si>
+    <t>На проде имеется переход http://www.aeroflot.ru/cms/fr/about/partners_all
+с еще одной иконкой Partenaires, на тесте не так, переход осуществляется сразу</t>
+  </si>
+  <si>
+    <t>Отсутствует иконка Offres de commercialisation</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/retail_center
+http://www.aeroflot.ru/cms/fr/about/retail_center</t>
+  </si>
+  <si>
+    <t>Compagnie/carte geographique interactive</t>
+  </si>
+  <si>
+    <t>Различаются ссылки</t>
+  </si>
+  <si>
+    <t>Различное название у страниц: тест- Carte qeoqraphique interactive, прод- Carte des itineraires</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/flight/ways_map
+http://www.aeroflot.ru/cms/fr/about/travel_map</t>
+  </si>
+  <si>
+    <t>Различное наполнение страницы</t>
+  </si>
+  <si>
+    <t>Compagnie/La flotte</t>
+  </si>
+  <si>
+    <t>Страница без хлебных крошек</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/flight/plane_park
+http://www.aeroflot.ru/cms/fr/flight/plane_park</t>
+  </si>
+  <si>
+    <t>Compagnie/Alliance SkyTeam/Nouvelles des membres de l'alliance SkyTeam</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/skyteam_news
+http://www.aeroflot.ru/cms/fr/skyteam_news</t>
+  </si>
+  <si>
+    <t>Кривое название страницы</t>
+  </si>
+  <si>
+    <t>Отображаются даты у полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображается архив </t>
+  </si>
+  <si>
+    <t>Compagnie/Alliance SkyTeam/SkyTeam Global Meetings</t>
+  </si>
+  <si>
+    <t>Вообще отсутствуют хлебные крошки</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-fr/about/global
+http://www.aeroflot.ru/cms/fr/about/global</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Sobre la empresa</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* Historia de la compania
+* Licitaciones y Adquisiciones</t>
+  </si>
+  <si>
+    <t>Присутствует лишняя иконка Noticias</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/about/
+http://www.aeroflot.ru/cms/es/about</t>
+  </si>
+  <si>
+    <t>Отличается изображение на иконке: Aeroflot el dia de hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Oficinas y centros en el mundo
+</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/offices
+http://www.aeroflot.ru/cms/es/offices</t>
+  </si>
+  <si>
+    <t>Различный заголовок: тест- Oficinas y centros en el mundo, прод- Offices</t>
+  </si>
+  <si>
+    <t>Разный контент</t>
+  </si>
+  <si>
+    <t>Разное наполнение поля Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Contacto
+</t>
+  </si>
+  <si>
+    <t>Отсутствует иконки:
+* Clientes corporativos
+* Informacion util de contacto</t>
+  </si>
+  <si>
+    <t>Разные отображения Contactos</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/about/contact
+http://www.aeroflot.ru/cms/es/about/contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Contacto/Contactos
+</t>
+  </si>
+  <si>
+    <t>Название страниц отличаются: тест-Contactos, прод-Atencion al cliente</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/about/queries
+http://www.aeroflot.ru/cms/es/about/queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Aeroflot el dia de hoy
+</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* Perfil de la compania
+* Estrategia y desarrollo
+* Politica de la compania 
+* Logros</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/about/aeroflot_today
+http://www.aeroflot.ru/cms/es/about/aeroflot_today</t>
+  </si>
+  <si>
+    <t>Присутствует лишняя иконка Historia de la compania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Mapa de destinos
+</t>
+  </si>
+  <si>
+    <t>Различный заголовок: тест- Mapa de destinos, прод-Tarjeta de itinerario</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/flight/ways_map
+http://www.aeroflot.ru/cms/es/about/travel_map</t>
+  </si>
+  <si>
+    <t>Разные ссылки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Flota de aviones
+</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/flight/plane_park
+http://www.aeroflot.ru/cms/es/flight/plane_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Alianza Sky Team/Noticias de los miembros de la alianza Sky Team
+</t>
+  </si>
+  <si>
+    <t>Кривой заголовок страницы</t>
+  </si>
+  <si>
+    <t>Проставлена дата у ссылок</t>
+  </si>
+  <si>
+    <t>Присутствует архив</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/skyteam_news
+http://www.aeroflot.ru/cms/es/about/skyteam_alliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la empresa/ Alianza Sky Team/Organiza o visita la Reunion global
+</t>
+  </si>
+  <si>
+    <t>Перевернутые знаки вопросов</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/about/skyteam_alliance
+http://www.aeroflot.ru/cms/es/about/skyteam_alliance</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-es/about/global
+http://www.aeroflot.ru/cms/es/about/global</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Compagnia aerea</t>
+  </si>
+  <si>
+    <t>Отсутствует иконка La storia</t>
+  </si>
+  <si>
+    <t>Присутствует лишняя иконка Notizie</t>
+  </si>
+  <si>
+    <t>Изображение Aeroflot oggi отличается от прода</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/about/
+http://www.aeroflot.ru/cms/it/about</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Notizie</t>
+  </si>
+  <si>
+    <t>кривая страница без контента</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/news</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/uffici e casse nel mondo</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/offices
+http://www.aeroflot.ru/cms/it/offices</t>
+  </si>
+  <si>
+    <t>Разное название у страниц тест- Uffici e casse nel mondo, прод- offices</t>
+  </si>
+  <si>
+    <t>В списке у поля Citta отсутствуют 2 города: Moscow, Saint-Petersburg</t>
+  </si>
+  <si>
+    <t>Разный контент на странице</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Contatti</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* Per I clienti corporativi
+* Utili informazioni di contatto</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/about/contact
+http://www.aeroflot.ru/cms/it/about/contact</t>
+  </si>
+  <si>
+    <t>Изображение у иконки отличается от прода Dove rivolgersi</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Contatti/Dove rivolgersi</t>
+  </si>
+  <si>
+    <t>Различный заголовок у страниц: тест- Dove rivolgersi, прод-Riferimenti</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/about/queries
+http://www.aeroflot.ru/cms/it/about/queries</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Aeroflot oggi</t>
+  </si>
+  <si>
+    <t>Отсутствуют иконки:
+* profilo della compagnia
+* Strategia e sviluppo
+* Politica della compagnia 
+* Realizzazioni</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/about/aeroflot_today
+http://www.aeroflot.ru/cms/it/about/aeroflot_today</t>
+  </si>
+  <si>
+    <t>Присутствует лишняя иконка La storia</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Mappa dejli itinerari</t>
+  </si>
+  <si>
+    <t>Различается заголовок страницы: тест- Mappa dejli itinerari, прод-Carta delle rotte</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/flight/ways_map
+http://www.aeroflot.ru/cms/it/about/travel_map</t>
+  </si>
+  <si>
+    <t>Различные ссылки</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Parco aeromobili</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/flight/plane_park
+http://www.aeroflot.ru/cms/it/flight/plane_park</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Alleanza Skyteam/Novita dei membri dell'alleanza Sky Team</t>
+  </si>
+  <si>
+    <t>даты имеются у полей</t>
+  </si>
+  <si>
+    <t>Имеется архив</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/skyteam_news
+http://www.aeroflot.ru/cms/it/skyteam_news</t>
+  </si>
+  <si>
+    <t>Compagnia aerea/Alleanza Skyteam/Incontri globali</t>
+  </si>
+  <si>
+    <t>http://www.aeroflot.ru/ru-it/about/global
+http://www.aeroflot.ru/cms/it/about/global</t>
   </si>
 </sst>
 </file>
@@ -881,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1972,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1616,6 +2204,1067 @@
       </c>
       <c r="C95" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>213</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>218</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>226</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>139</v>
+      </c>
+      <c r="C177" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>244</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>251</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>139</v>
+      </c>
+      <c r="C190" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>172</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>139</v>
+      </c>
+      <c r="C196" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>262</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>190</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>267</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>139</v>
+      </c>
+      <c r="C206" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>272</v>
+      </c>
+      <c r="D208" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>139</v>
+      </c>
+      <c r="C212" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>134</v>
+      </c>
+      <c r="C213" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>284</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>139</v>
+      </c>
+      <c r="C225" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>125</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>172</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>134</v>
+      </c>
+      <c r="C232" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>125</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/О_компании.xlsx
+++ b/О_компании.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="303">
   <si>
     <t>Сопоставление страницы "О компании" РЦ2 и прода на всех языках кроме русского.</t>
   </si>
@@ -76,9 +76,6 @@
   <si>
     <t xml:space="preserve">Offices of Direct sales worldwide
 </t>
-  </si>
-  <si>
-    <t>Не отображения хлебных крошек</t>
   </si>
   <si>
     <t>2.</t>
@@ -1107,6 +1104,12 @@
   <si>
     <t>http://www.aeroflot.ru/ru-it/about/global
 http://www.aeroflot.ru/cms/it/about/global</t>
+  </si>
+  <si>
+    <t>Нет отображения хлебных крошек</t>
+  </si>
+  <si>
+    <t>Корейский, китайский, японский уже времени нет проверить.</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,12 +1577,12 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1587,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1598,12 +1601,12 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1611,10 +1614,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,12 +1625,12 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,10 +1638,10 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1646,15 +1649,15 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1662,15 +1665,15 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1678,15 +1681,15 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1694,15 +1697,15 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1710,15 +1713,15 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1726,15 +1729,15 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1742,10 +1745,10 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1753,15 +1756,15 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
         <v>51</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1769,15 +1772,15 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1785,15 +1788,15 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1801,15 +1804,15 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1817,15 +1820,15 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1833,15 +1836,15 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1849,15 +1852,15 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1865,15 +1868,15 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1881,15 +1884,15 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1897,15 +1900,15 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1913,15 +1916,15 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1929,15 +1932,15 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1945,15 +1948,15 @@
         <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1961,15 +1964,15 @@
         <v>13</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1977,10 +1980,10 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1988,13 +1991,13 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
         <v>95</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>96</v>
-      </c>
-      <c r="D67" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2002,13 +2005,13 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" t="s">
         <v>98</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2016,13 +2019,13 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2030,18 +2033,18 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
         <v>102</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2049,28 +2052,28 @@
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
         <v>106</v>
-      </c>
-      <c r="D74" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2078,15 +2081,15 @@
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2094,15 +2097,15 @@
         <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2110,28 +2113,28 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2139,15 +2142,15 @@
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2155,20 +2158,20 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2176,10 +2179,10 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2195,20 +2198,20 @@
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" t="s">
         <v>134</v>
-      </c>
-      <c r="C95" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2216,39 +2219,39 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" t="s">
         <v>139</v>
-      </c>
-      <c r="C99" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2256,23 +2259,23 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2280,15 +2283,15 @@
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2296,31 +2299,31 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -2328,15 +2331,15 @@
         <v>3</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2344,15 +2347,15 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2360,12 +2363,12 @@
         <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2373,31 +2376,31 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2405,15 +2408,15 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2421,39 +2424,39 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2461,20 +2464,20 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2482,18 +2485,18 @@
         <v>3</v>
       </c>
       <c r="C132" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2501,20 +2504,20 @@
         <v>6</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2522,15 +2525,15 @@
         <v>13</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D137" t="s">
         <v>187</v>
-      </c>
-      <c r="D137" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2538,10 +2541,10 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2549,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,20 +2560,20 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2578,20 +2581,20 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2599,15 +2602,15 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2615,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,12 +2629,12 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2639,15 +2642,15 @@
         <v>13</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2655,15 +2658,15 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2671,25 +2674,25 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2697,15 +2700,15 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
+        <v>217</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2713,30 +2716,30 @@
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2744,20 +2747,20 @@
         <v>13</v>
       </c>
       <c r="C167" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2765,10 +2768,10 @@
         <v>3</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,20 +2779,20 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2797,39 +2800,39 @@
         <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2837,23 +2840,23 @@
         <v>3</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2861,15 +2864,15 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
+        <v>243</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2877,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,12 +2891,12 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2901,31 +2904,31 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
+        <v>250</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2933,15 +2936,15 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2949,39 +2952,39 @@
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C196" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2989,31 +2992,31 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
+        <v>261</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3021,31 +3024,31 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C205" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C206" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,15 +3056,15 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
+        <v>271</v>
+      </c>
+      <c r="D208" t="s">
         <v>272</v>
-      </c>
-      <c r="D208" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3069,39 +3072,39 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C213" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3109,23 +3112,23 @@
         <v>3</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3133,15 +3136,15 @@
         <v>3</v>
       </c>
       <c r="C218" t="s">
+        <v>283</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -3149,23 +3152,23 @@
         <v>3</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C221" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3173,31 +3176,31 @@
         <v>3</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C224" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3205,15 +3208,15 @@
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3221,39 +3224,39 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C230" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C231" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C232" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3261,10 +3264,15 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
